--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Wolfram.Spring.021220.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Wolfram.Spring.021220.xlsx_with_dialog_acts.xlsx
@@ -723,12 +723,12 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2575,12 +2575,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2701,12 +2701,12 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2785,12 +2785,12 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2869,12 +2869,12 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2911,12 +2911,12 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3121,12 +3121,12 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3289,12 +3289,12 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3415,12 +3415,12 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3667,12 +3667,12 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4087,12 +4087,12 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4297,12 +4297,12 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4549,12 +4549,12 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5939,12 +5939,12 @@
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6023,12 +6023,12 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6485,12 +6485,12 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6611,12 +6611,12 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6695,12 +6695,12 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6863,12 +6863,12 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7119,12 +7119,12 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7707,12 +7707,12 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
